--- a/biology/Zoologie/Euthalia_merta/Euthalia_merta.xlsx
+++ b/biology/Zoologie/Euthalia_merta/Euthalia_merta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euthalia merta est un papillon de la famille des Nymphalidae, de la sous-famille des Limenitidinae et du genre Euthalia.
 </t>
@@ -511,11 +523,48 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euthalia merta a été décrit  par Frederic Moore en 1859 sous le nom initial d'Adolias merta[1].
-Sous-espèces
-Euthalia merta merta ; présent en Malaisie, en Thaïlande et à Singapour[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euthalia merta a été décrit  par Frederic Moore en 1859 sous le nom initial d'Adolias merta.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Euthalia_merta</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euthalia_merta</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Euthalia merta merta ; présent en Malaisie, en Thaïlande et à Singapour.
 Euthalia merta apicalis (Vollenhoven, 1862) ; présent à Bornéo.
 Euthalia merta karina Kalis, 1933.
 Euthalia merta milleri Pendlebury, 1939.
@@ -523,38 +572,74 @@
 Euthalia merta prisca Fruhstorfer, 1913.
 Euthalia merta pseudomerta Fruhstorfer, 1906 ; présent à Sumatra.
 Euthalia merta schoenigi Schröder &amp; Treadaway, 1978.
-Euthalia merta tioma Eliot, 1978[1].
-Nom vernaculaire
-Euthalia merta se nomme White-tipped Baron en anglais[1].
+Euthalia merta tioma Eliot, 1978.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Euthalia_merta</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euthalia_merta</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euthalia merta se nomme White-tipped Baron en anglais.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Euthalia_merta</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Euthalia_merta</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un grand papillon aux ailes antérieures à apex anguleux et bord externe concave et ailes postérieures à angle anal anguleux.
 Les ailes sont beige à marron, marbrées.
@@ -562,69 +647,111 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Euthalia_merta</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Euthalia_merta</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euthalia merta est présent en Thaïlande, en Malaisie, aux Philippines, à Bornéo, à Sumatra et à Nias.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Euthalia_merta</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Euthalia_merta</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euthalia merta est présent en Thaïlande, en Malaisie, aux Philippines, à Bornéo, à Sumatra et à Nias[1].
-Biotope
-Il réside en bords de forêt.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en bords de forêt.
 Sur les autres projets Wikimedia :
 Euthalia merta, sur Wikimedia CommonsEuthalia merta, sur Wikispecies
-Protection
-Pas de statut de protection particulier, noté LC (Least Concern) sur le Red Data Book[3].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Euthalia_merta</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euthalia_merta</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier, noté LC (Least Concern) sur le Red Data Book.
 </t>
         </is>
       </c>
